--- a/src/test/resources/handler/sample-data-notitle.xlsx
+++ b/src/test/resources/handler/sample-data-notitle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14220" windowHeight="7065" activeTab="1"/>
+    <workbookView windowWidth="14220" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="eng" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <t>https://contextures.com/xlsampledata01.html</t>
   </si>
   <si>
-    <t>sheet</t>
+    <t>chs</t>
   </si>
   <si>
     <t>generated by deepseek</t>
@@ -1724,8 +1724,8 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2766,7 +2766,7 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -3804,7 +3804,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
